--- a/examples/VASP_to_thermdat/thermdat_input.xlsx
+++ b/examples/VASP_to_thermdat/thermdat_input.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E837C98-2D38-4382-8961-893C9B971612}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,12 +99,6 @@
     <t>elements~O</t>
   </si>
   <si>
-    <t>Type of thermodynamic model. Supported ones can be found in Thermochemistry.models.statmech</t>
-  </si>
-  <si>
-    <t>Thermochemistry.models.statmech.idealgasthermo.IdealGasThermo</t>
-  </si>
-  <si>
     <t>O2</t>
   </si>
   <si>
@@ -131,9 +126,6 @@
     <t>G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\O2\CONTCAR</t>
   </si>
   <si>
-    <t>Thermochemistry.models.statmech.harmonicthermo.HarmonicThermo</t>
-  </si>
-  <si>
     <t>Number of H in formula unit</t>
   </si>
   <si>
@@ -156,12 +148,21 @@
   </si>
   <si>
     <t>Vibrational wavenumber in 1/cm</t>
+  </si>
+  <si>
+    <t>IdealGas</t>
+  </si>
+  <si>
+    <t>Harmonic</t>
+  </si>
+  <si>
+    <t>Type of thermodynamic model. Supported options include IdealGas and Harmonic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,31 +526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="91.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="169.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="18" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +553,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -584,20 +574,20 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -605,16 +595,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -632,20 +622,20 @@
         <v>19</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -662,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>-14.2209</v>
@@ -689,7 +679,7 @@
         <v>1582.432</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -706,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>-6.7598000000000003</v>
@@ -727,9 +717,9 @@
         <v>4306.1792999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -744,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>-9.86</v>
@@ -753,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -765,12 +755,12 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -782,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -798,12 +788,12 @@
         <v>277.73190699999998</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -815,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -831,12 +821,12 @@
         <v>277.73190699999998</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -848,18 +838,18 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -871,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -886,13 +876,13 @@
         <v>277.73190699999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -903,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -918,12 +908,12 @@
         <v>277.73190699999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -935,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>7</v>

--- a/examples/VASP_to_thermdat/thermdat_input.xlsx
+++ b/examples/VASP_to_thermdat/thermdat_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E837C98-2D38-4382-8961-893C9B971612}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F443BA15-6464-4F59-B457-047AE24A5266}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,12 +87,6 @@
     <t>The total electronic spin. (0 for molecules in which all electrons are paired, 0.5 for a free radical with a single unpaired electron, 1.0 for a triplet with two unpaired electrons, such as O_2.)</t>
   </si>
   <si>
-    <t>G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\H2\CONTCAR</t>
-  </si>
-  <si>
-    <t>G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\H2O\CONTCAR</t>
-  </si>
-  <si>
     <t>elements~H</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\O2\CONTCAR</t>
-  </si>
-  <si>
     <t>Number of H in formula unit</t>
   </si>
   <si>
@@ -157,6 +148,15 @@
   </si>
   <si>
     <t>Type of thermodynamic model. Supported options include IdealGas and Harmonic</t>
+  </si>
+  <si>
+    <t>.\H2O\CONTCAR</t>
+  </si>
+  <si>
+    <t>.\H2\CONTCAR</t>
+  </si>
+  <si>
+    <t>.\O2\CONTCAR</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,13 +547,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -574,13 +574,13 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -595,16 +595,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -622,13 +622,13 @@
         <v>19</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>-14.2209</v>
@@ -661,7 +661,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>-6.7598000000000003</v>
@@ -705,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>-9.86</v>
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -823,10 +823,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -878,11 +878,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>7</v>
